--- a/Produtos.xlsx
+++ b/Produtos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Importa-planilha-excel\Importa-planilha-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\importa-planilha-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB1A573E-26BF-4B19-84AD-BD609036BCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF752753-3AC9-4C22-83C8-57CDA58AB13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E412B6F-68E1-4F8E-9613-6CBFFFC13331}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Nome</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>LG</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>AD2ESD</t>
+  </si>
+  <si>
+    <t>FRFRG3</t>
+  </si>
+  <si>
+    <t>FG453A</t>
+  </si>
+  <si>
+    <t>Mouse</t>
   </si>
 </sst>
 </file>
@@ -444,56 +459,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFAA13B-6C56-416B-8857-EE956F66D106}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>5000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>3000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>500</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Produtos.xlsx
+++ b/Produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\importa-planilha-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF752753-3AC9-4C22-83C8-57CDA58AB13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD209B8-93BA-4AA7-9675-BB911A714DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E412B6F-68E1-4F8E-9613-6CBFFFC13331}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Nome</t>
   </si>
@@ -75,6 +75,36 @@
   </si>
   <si>
     <t>Mouse</t>
+  </si>
+  <si>
+    <t>FG453B</t>
+  </si>
+  <si>
+    <t>FG453C</t>
+  </si>
+  <si>
+    <t>FG453D</t>
+  </si>
+  <si>
+    <t>FG453E</t>
+  </si>
+  <si>
+    <t>Teclado Preto</t>
+  </si>
+  <si>
+    <t>Teclado Branco</t>
+  </si>
+  <si>
+    <t>Fone</t>
+  </si>
+  <si>
+    <t>HeadFone</t>
+  </si>
+  <si>
+    <t>Redragon</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
   </si>
 </sst>
 </file>
@@ -459,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFAA13B-6C56-416B-8857-EE956F66D106}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +568,74 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>320</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>360</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
